--- a/Graficas.xlsx
+++ b/Graficas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IvetteCardona22/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FER ESTRADA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25380" windowHeight="14440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7515" windowHeight="4575" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inciso A" sheetId="1" r:id="rId1"/>
@@ -17,24 +17,25 @@
     <sheet name="Inciso Ci" sheetId="4" r:id="rId3"/>
     <sheet name="Inciso Cii" sheetId="5" r:id="rId4"/>
     <sheet name="Inciso Ciii" sheetId="6" r:id="rId5"/>
+    <sheet name="Decisión Final" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
   <si>
     <t>Tiempo promedio (s)</t>
   </si>
@@ -50,12 +51,27 @@
   <si>
     <t>Intervalo 1</t>
   </si>
+  <si>
+    <t>Tiempo con 200 RAM</t>
+  </si>
+  <si>
+    <t>Tiempo promedio</t>
+  </si>
+  <si>
+    <t>Tiempo con 6 Instr.</t>
+  </si>
+  <si>
+    <t>Tiempo con 2 Procesadores</t>
+  </si>
+  <si>
+    <t>La mejor estrategia para reducir el tiempo promedio es incrementar la velocidad del procesador (en este caso, 6 instrucciones en lugar de 3). Para intervalos de 10 y de 5, es el que menor tiempo presenta. Incluso si en Intervalo 10 le gana el implementar 2 procesadores, la diferencia no es notoria. En base a las gráficas, nuestra decisión final es incrementar la velocidad del procesador.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +135,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -218,13 +252,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,6 +388,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -272,7 +450,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -337,7 +515,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -352,7 +530,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -376,58 +558,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0917818391967059"/>
-                  <c:y val="0.283189814039203"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Inciso A'!$B$11:$B$15</c:f>
@@ -435,19 +565,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,25 +589,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>142.88</c:v>
+                  <c:v>2.9056340765600002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257.74</c:v>
+                  <c:v>3.1010418602300001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493.5</c:v>
+                  <c:v>3.3312534180000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>784.6</c:v>
+                  <c:v>3.38338691493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1008.425</c:v>
+                  <c:v>3.3312457380099998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C10-4C4D-B550-6289F358C865}"/>
             </c:ext>
@@ -567,7 +697,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -605,7 +735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="194907216"/>
@@ -685,7 +815,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -723,7 +853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="194900976"/>
@@ -746,12 +876,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -766,7 +893,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -778,16 +905,16 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -798,27 +925,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Tiempo vrs Procesos (Intervalo 5 )</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo vrs Procesos (Intervalo 5 - 2 Procesadores)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -836,19 +958,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -875,7 +997,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -886,11 +1010,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -903,19 +1031,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,24 +1055,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.07926731549</c:v>
+                  <c:v>3.0792673154900001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.16211375894</c:v>
+                  <c:v>3.1621137589399999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.02668996461</c:v>
+                  <c:v>3.0266899646100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.01381125885</c:v>
+                  <c:v>3.0138112588500001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.03152052833</c:v>
+                  <c:v>3.0315205283300002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2DC-4F81-A8E4-65FC7777B1D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -978,6 +1111,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -999,19 +1194,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="169148560"/>
@@ -1039,6 +1234,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1061,19 +1317,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="231166432"/>
@@ -1096,12 +1352,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1112,9 +1365,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1126,16 +1381,16 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1146,27 +1401,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Tiempo vrs procesos</a:t>
+              <a:t>Tiempo vrs Procesos (Intervalo 10 - 2 Procesadores)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl" baseline="0"/>
-              <a:t> (Intervalo 10)</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1184,19 +1434,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1223,7 +1473,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1234,11 +1486,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1251,19 +1507,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,18 +1537,23 @@
                   <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.98682345467</c:v>
+                  <c:v>2.9868234546700001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.01395373548</c:v>
+                  <c:v>3.0139537354799999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.94422877343</c:v>
+                  <c:v>2.9442287734299999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F1B-4C50-9AC9-B067441A0250}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1326,6 +1587,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1347,19 +1670,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232949680"/>
@@ -1387,6 +1710,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1409,19 +1793,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175592064"/>
@@ -1444,12 +1828,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1460,9 +1841,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1474,16 +1857,16 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1494,27 +1877,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Tiempo vrs Procesos</a:t>
+              <a:t>Tiempo vrs Procesos (Intervalo 1 - 2 Procesadores)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl" baseline="0"/>
-              <a:t> (Intervalo 1)</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1532,19 +1910,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1571,7 +1949,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1582,11 +1962,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1596,7 +1980,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1608,8 +1994,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20296719160105"/>
-                  <c:y val="-0.175082750072908"/>
+                  <c:x val="8.4702219040801718E-2"/>
+                  <c:y val="0.30964170034944938"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1625,19 +2011,19 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1649,19 +2035,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,13 +2059,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.10315472033</c:v>
+                  <c:v>9.1031547203300001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.0075327969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.7390688267</c:v>
+                  <c:v>18.739068826699999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.7116800123</c:v>
@@ -1691,6 +2077,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72EF-4859-A58F-184B84176846}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1724,6 +2115,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesadores</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1745,19 +2198,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="229942016"/>
@@ -1785,6 +2238,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1806,19 +2321,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="197371872"/>
@@ -1841,12 +2356,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1857,9 +2369,2142 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo vrs Procesos (Intervalo 10)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9056340765600002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1010418602300001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3312534180000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38338691493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3312457380099998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE29-4FC5-9834-DEC48FB648E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 200 RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9056340765600002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1010418602300001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3312534180000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38338691493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3312457380099998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE29-4FC5-9834-DEC48FB648E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 6 Instr.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.52726494514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.71663914487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7888882001399999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73019396545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7380254506899999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE29-4FC5-9834-DEC48FB648E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 2 Procesadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9868234546700001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0139537354799999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9442287734299999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE29-4FC5-9834-DEC48FB648E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="900402320"/>
+        <c:axId val="900392752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="900402320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesos (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900392752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="900392752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="900402320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vrs Procesos (Intervalo 5)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4553169564599999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6760015846399998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5414626779599998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8616348998399999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81505109132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AC4-4F3B-BAAC-6143CA6415B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 200 RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$C$13:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4553169564599999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6760015846399998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5414626779599998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8616348998399999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81505109132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5AC4-4F3B-BAAC-6143CA6415B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 6 Instr.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.98443970749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0775537339699999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1016347991500002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98570005905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.96456077685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5AC4-4F3B-BAAC-6143CA6415B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 2 Procesadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0792673154900001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1621137589399999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0266899646100001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0138112588500001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0315205283300002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5AC4-4F3B-BAAC-6143CA6415B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="784882576"/>
+        <c:axId val="784885488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="784882576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784885488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="784885488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784882576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo vrs Procesos (Intervalo 1)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$B$22:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29.645232977799999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.765776831399997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.879264153700007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.506487025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.62738096199999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F8C-4E99-86E7-31E7C85E91F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 200 RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$C$22:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29.685232977799998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.1041947529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.286113321000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.406862601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.30005261400001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F8C-4E99-86E7-31E7C85E91F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 6 Instr.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$D$22:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.5714806113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.3373787175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.8512794892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.5051723461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.887775353599999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F8C-4E99-86E7-31E7C85E91F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decisión Final'!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo con 2 Procesadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decisión Final'!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decisión Final'!$E$22:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.1031547203300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0075327969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.739068826699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.7116800123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.302750348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F8C-4E99-86E7-31E7C85E91F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="784884656"/>
+        <c:axId val="784889232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="784884656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesos (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784889232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="784889232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784884656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1871,7 +4516,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1936,7 +4581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1951,7 +4596,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1982,19 +4631,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,16 +4655,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.45531695646</c:v>
+                  <c:v>3.4553169564599999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.67600158464</c:v>
+                  <c:v>3.6760015846399998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.54146267796</c:v>
+                  <c:v>3.5414626779599998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.86163489984</c:v>
+                  <c:v>3.8616348998399999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.81505109132</c:v>
@@ -2024,7 +4673,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-76A7-4830-948F-1DFDD99B80C2}"/>
             </c:ext>
@@ -2114,7 +4763,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2152,7 +4801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="194933408"/>
@@ -2232,7 +4881,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2270,7 +4919,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="194929648"/>
@@ -2293,12 +4942,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2313,7 +4959,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2325,7 +4971,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2390,7 +5036,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2405,7 +5051,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2448,7 +5098,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.121313648293963"/>
-                  <c:y val="0.348424540682415"/>
+                  <c:y val="0.34842454068241502"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2476,7 +5126,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2488,19 +5138,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,25 +5162,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.6452329778</c:v>
+                  <c:v>29.645232977799999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.7657768314</c:v>
+                  <c:v>41.765776831399997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.87926415370001</c:v>
+                  <c:v>72.879264153700007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>106.506487025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.627380962</c:v>
+                  <c:v>136.62738096199999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0B6-474D-A276-2C6E7D322D04}"/>
             </c:ext>
@@ -2620,7 +5270,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2658,7 +5308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="170096480"/>
@@ -2738,7 +5388,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2776,7 +5426,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="170155216"/>
@@ -2799,12 +5449,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2819,7 +5466,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2831,7 +5478,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2901,7 +5548,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2916,7 +5563,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2940,58 +5591,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0903215223097113"/>
-                  <c:y val="0.248558253135025"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Inciso Ci'!$B$6:$B$10</c:f>
@@ -2999,19 +5598,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,25 +5622,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>143.24</c:v>
+                  <c:v>2.9056340765600002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.44</c:v>
+                  <c:v>3.1010418602300001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>471.82</c:v>
+                  <c:v>3.3312534180000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750.13</c:v>
+                  <c:v>3.38338691493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>964.71</c:v>
+                  <c:v>3.3312457380099998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-452C-4410-A3D5-258B7744F3D9}"/>
             </c:ext>
@@ -3131,7 +5730,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3169,7 +5768,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168434368"/>
@@ -3254,7 +5853,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3292,7 +5891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168430976"/>
@@ -3315,12 +5914,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3335,7 +5931,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3347,7 +5943,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3417,7 +6013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3432,7 +6028,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3456,59 +6056,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0853718285214348"/>
-                  <c:y val="0.315150554097405"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Inciso Ci'!$B$18:$B$22</c:f>
@@ -3516,19 +6063,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,25 +6087,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>62.2</c:v>
+                  <c:v>3.4553169564599999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.66</c:v>
+                  <c:v>3.6760015846399998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221.4</c:v>
+                  <c:v>3.5414626779599998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>361.51</c:v>
+                  <c:v>3.8616348998399999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>467.62</c:v>
+                  <c:v>3.81505109132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-89EA-47F0-A455-4F20BEAC8D4D}"/>
             </c:ext>
@@ -3648,7 +6195,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3686,7 +6233,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195131008"/>
@@ -3766,7 +6313,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3804,7 +6351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195127616"/>
@@ -3827,12 +6374,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3847,7 +6391,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3859,7 +6403,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3929,7 +6473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3944,7 +6488,11 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3968,59 +6516,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0776437007874016"/>
-                  <c:y val="0.301261665208516"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Inciso Ci'!$B$30:$B$34</c:f>
@@ -4028,19 +6523,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4052,25 +6547,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>29.685232977799998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1</c:v>
+                  <c:v>48.1041947529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.33</c:v>
+                  <c:v>78.286113321000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.06</c:v>
+                  <c:v>111.406862601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.54</c:v>
+                  <c:v>138.30005261400001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-58CA-4FA1-A264-BC02C0FAC232}"/>
             </c:ext>
@@ -4160,7 +6655,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4198,7 +6693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195154960"/>
@@ -4283,7 +6778,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4321,7 +6816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195151568"/>
@@ -4344,12 +6839,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4364,7 +6856,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4376,16 +6868,16 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4396,21 +6888,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Tiempo vrs proceso(intervalo 10)</a:t>
+              <a:t>Tiempo vrs Procesos (Intervalo 10 - 6 Instrucciones)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4429,19 +6921,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4468,7 +6960,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4479,11 +6973,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4496,19 +6994,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4526,18 +7024,23 @@
                   <c:v>1.71663914487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.78888820014</c:v>
+                  <c:v>1.7888882001399999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.73019396545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.73802545069</c:v>
+                  <c:v>1.7380254506899999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E034-4054-96E6-3908CAE69627}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4571,6 +7074,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Procesos (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4592,19 +7152,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="232878000"/>
@@ -4632,6 +7192,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4653,19 +7275,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="233110400"/>
@@ -4688,12 +7310,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4704,9 +7323,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4718,16 +7339,16 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4738,21 +7359,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Tiempo vrs proceso (intervalo 5) </a:t>
+              <a:t>Tiempo vrs Procesos (Intervalo 5 - 6 Instrucciones) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4771,19 +7392,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4810,7 +7431,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4821,11 +7444,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4838,19 +7465,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,10 +7492,10 @@
                   <c:v>1.98443970749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07755373397</c:v>
+                  <c:v>2.0775537339699999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.10163479915</c:v>
+                  <c:v>2.1016347991500002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.98570005905</c:v>
@@ -4880,6 +7507,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF52-40EA-8169-E242BC006589}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4913,6 +7545,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proceos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4934,19 +7628,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="231075104"/>
@@ -4974,6 +7668,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4995,19 +7751,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="201004448"/>
@@ -5030,12 +7786,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5046,9 +7799,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5060,16 +7815,16 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5080,29 +7835,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES_tradnl"/>
-              <a:t>Tiempo vrs proceso (intervalo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl" baseline="0"/>
-              <a:t> 1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES_tradnl"/>
-              <a:t>)</a:t>
+              <a:t>Tiempo vrs Procesos (Intervalo 1 - 6 Instrucciones)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5121,19 +7868,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5160,7 +7907,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5171,11 +7920,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5185,7 +7938,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -5197,8 +7952,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.180744969378828"/>
-                  <c:y val="-0.167910834062409"/>
+                  <c:x val="0.14948723455022667"/>
+                  <c:y val="0.34515852957546006"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5214,19 +7969,19 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5238,19 +7993,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5274,12 +8029,17 @@
                   <c:v>26.5051723461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.8877753536</c:v>
+                  <c:v>34.887775353599999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2468-4F14-A9B0-D9E964501AAA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5313,6 +8073,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proceso</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>s (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5334,19 +8156,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="233389008"/>
@@ -5374,6 +8196,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5395,19 +8279,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="231064544"/>
@@ -5430,12 +8314,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5446,9 +8327,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5487,6 +8370,87 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5526,7 +8490,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5566,7 +8530,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5742,121 +8706,82 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -7906,6 +10831,1554 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12058,15 +16531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12440,6 +16913,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -12706,18 +17274,18 @@
   <dimension ref="B9:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
@@ -12725,44 +17293,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>25</v>
       </c>
       <c r="C11" s="3">
-        <v>142.88</v>
+        <v>2.9056340765600002</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>50</v>
       </c>
       <c r="C12" s="3">
-        <v>257.74</v>
+        <v>3.1010418602300001</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>100</v>
       </c>
       <c r="C13" s="3">
-        <v>493.5</v>
+        <v>3.3312534180000002</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>150</v>
       </c>
       <c r="C14" s="3">
-        <v>784.6</v>
+        <v>3.38338691493</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>200</v>
       </c>
       <c r="C15" s="4">
-        <v>1008.425</v>
+        <v>3.3312457380099998</v>
       </c>
     </row>
   </sheetData>
@@ -12776,19 +17344,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
@@ -12796,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -12804,7 +17372,7 @@
         <v>3.4553169564599999</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -12812,7 +17380,7 @@
         <v>3.6760015846399998</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>100</v>
       </c>
@@ -12820,7 +17388,7 @@
         <v>3.5414626779599998</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>150</v>
       </c>
@@ -12828,7 +17396,7 @@
         <v>3.8616348998399999</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>200</v>
       </c>
@@ -12836,11 +17404,11 @@
         <v>3.81505109132</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K18" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>1</v>
       </c>
@@ -12848,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -12856,7 +17424,7 @@
         <v>29.645232977799999</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>50</v>
       </c>
@@ -12864,7 +17432,7 @@
         <v>41.765776831399997</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>100</v>
       </c>
@@ -12872,7 +17440,7 @@
         <v>72.879264153700007</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>150</v>
       </c>
@@ -12880,7 +17448,7 @@
         <v>106.506487025</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <v>200</v>
       </c>
@@ -12899,18 +17467,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -12918,48 +17486,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>143.24</v>
+        <v>2.9056340765600002</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>50</v>
       </c>
       <c r="C7" s="3">
-        <v>249.44</v>
+        <v>3.1010418602300001</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>100</v>
       </c>
       <c r="C8" s="3">
-        <v>471.82</v>
+        <v>3.3312534180000002</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>150</v>
       </c>
       <c r="C9" s="3">
-        <v>750.13</v>
+        <v>3.38338691493</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>200</v>
       </c>
       <c r="C10" s="4">
-        <v>964.71</v>
+        <v>3.3312457380099998</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
@@ -12967,48 +17535,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>62.2</v>
+        <v>3.4553169564599999</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>50</v>
       </c>
       <c r="C19" s="3">
-        <v>109.66</v>
+        <v>3.6760015846399998</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>100</v>
       </c>
       <c r="C20" s="3">
-        <v>221.4</v>
+        <v>3.5414626779599998</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>150</v>
       </c>
       <c r="C21" s="3">
-        <v>361.51</v>
+        <v>3.8616348998399999</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>200</v>
       </c>
       <c r="C22" s="4">
-        <v>467.62</v>
+        <v>3.81505109132</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>1</v>
       </c>
@@ -13016,44 +17584,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>2.6</v>
+        <v>29.685232977799998</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>50</v>
       </c>
       <c r="C31" s="3">
-        <v>3.1</v>
+        <v>48.1041947529</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>100</v>
       </c>
       <c r="C32" s="3">
-        <v>8.33</v>
+        <v>78.286113321000002</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>150</v>
       </c>
       <c r="C33" s="3">
-        <v>21.06</v>
+        <v>111.406862601</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <v>200</v>
       </c>
       <c r="C34" s="4">
-        <v>32.54</v>
+        <v>138.30005261400001</v>
       </c>
     </row>
   </sheetData>
@@ -13066,18 +17634,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -13085,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>25</v>
       </c>
@@ -13093,7 +17661,7 @@
         <v>1.52726494514</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>50</v>
       </c>
@@ -13101,7 +17669,7 @@
         <v>1.71663914487</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>100</v>
       </c>
@@ -13109,7 +17677,7 @@
         <v>1.7888882001399999</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>150</v>
       </c>
@@ -13117,7 +17685,7 @@
         <v>1.73019396545</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>200</v>
       </c>
@@ -13125,8 +17693,8 @@
         <v>1.7380254506899999</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
@@ -13134,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>25</v>
       </c>
@@ -13142,7 +17710,7 @@
         <v>1.98443970749</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>50</v>
       </c>
@@ -13150,7 +17718,7 @@
         <v>2.0775537339699999</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>100</v>
       </c>
@@ -13158,7 +17726,7 @@
         <v>2.1016347991500002</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>150</v>
       </c>
@@ -13166,7 +17734,7 @@
         <v>1.98570005905</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>200</v>
       </c>
@@ -13174,8 +17742,8 @@
         <v>1.96456077685</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>1</v>
       </c>
@@ -13183,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>25</v>
       </c>
@@ -13191,7 +17759,7 @@
         <v>10.5714806113</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>50</v>
       </c>
@@ -13199,7 +17767,7 @@
         <v>15.3373787175</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>100</v>
       </c>
@@ -13207,7 +17775,7 @@
         <v>21.8512794892</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <v>150</v>
       </c>
@@ -13215,7 +17783,7 @@
         <v>26.5051723461</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <v>200</v>
       </c>
@@ -13234,22 +17802,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -13257,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>25</v>
       </c>
@@ -13265,7 +17829,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -13273,7 +17837,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>100</v>
       </c>
@@ -13281,7 +17845,7 @@
         <v>2.9868234546700001</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>150</v>
       </c>
@@ -13289,7 +17853,7 @@
         <v>3.0139537354799999</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>200</v>
       </c>
@@ -13297,12 +17861,8 @@
         <v>2.9442287734299999</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
@@ -13310,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>25</v>
       </c>
@@ -13318,7 +17878,7 @@
         <v>3.0792673154900001</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -13326,7 +17886,7 @@
         <v>3.1621137589399999</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>100</v>
       </c>
@@ -13334,7 +17894,7 @@
         <v>3.0266899646100001</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>150</v>
       </c>
@@ -13342,7 +17902,7 @@
         <v>3.0138112588500001</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>200</v>
       </c>
@@ -13350,12 +17910,10 @@
         <v>3.0315205283300002</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>4</v>
-      </c>
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
@@ -13363,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>25</v>
       </c>
@@ -13371,7 +17929,7 @@
         <v>9.1031547203300001</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>50</v>
       </c>
@@ -13379,7 +17937,7 @@
         <v>11.0075327969</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>100</v>
       </c>
@@ -13387,7 +17945,7 @@
         <v>18.739068826699999</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>150</v>
       </c>
@@ -13395,7 +17953,7 @@
         <v>25.7116800123</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>200</v>
       </c>
@@ -13407,4 +17965,477 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="9">
+        <v>2.9056340765600002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.9056340765600002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.52726494514</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="F4" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5">
+        <v>3.1010418602300001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.1010418602300001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.71663914487</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="F5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5">
+        <v>3.3312534180000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.3312534180000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.7888882001399999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.9868234546700001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5">
+        <v>3.38338691493</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.38338691493</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.73019396545</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.0139537354799999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6">
+        <v>3.3312457380099998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.3312457380099998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.7380254506899999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.9442287734299999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5">
+        <v>3.4553169564599999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.4553169564599999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.98443970749</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.0792673154900001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5">
+        <v>3.6760015846399998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.6760015846399998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.0775537339699999</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.1621137589399999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5">
+        <v>3.5414626779599998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.5414626779599998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.1016347991500002</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.0266899646100001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5">
+        <v>3.8616348998399999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.8616348998399999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.98570005905</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.0138112588500001</v>
+      </c>
+      <c r="F16" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6">
+        <v>3.81505109132</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.81505109132</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.96456077685</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.0315205283300002</v>
+      </c>
+      <c r="F17" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9">
+        <v>29.645232977799999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>29.685232977799998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10.5714806113</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9.1031547203300001</v>
+      </c>
+      <c r="F22" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5">
+        <v>41.765776831399997</v>
+      </c>
+      <c r="C23" s="3">
+        <v>48.1041947529</v>
+      </c>
+      <c r="D23" s="3">
+        <v>15.3373787175</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11.0075327969</v>
+      </c>
+      <c r="F23" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5">
+        <v>72.879264153700007</v>
+      </c>
+      <c r="C24" s="3">
+        <v>78.286113321000002</v>
+      </c>
+      <c r="D24" s="3">
+        <v>21.8512794892</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18.739068826699999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="5">
+        <v>106.506487025</v>
+      </c>
+      <c r="C25" s="3">
+        <v>111.406862601</v>
+      </c>
+      <c r="D25" s="3">
+        <v>26.5051723461</v>
+      </c>
+      <c r="E25" s="3">
+        <v>25.7116800123</v>
+      </c>
+      <c r="F25" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="6">
+        <v>136.62738096199999</v>
+      </c>
+      <c r="C26" s="4">
+        <v>138.30005261400001</v>
+      </c>
+      <c r="D26" s="4">
+        <v>34.887775353599999</v>
+      </c>
+      <c r="E26" s="4">
+        <v>29.302750348</v>
+      </c>
+      <c r="F26" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B30:E38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Graficas.xlsx
+++ b/Graficas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FER ESTRADA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IvetteCardona22/Desktop/HDT5/HojaTrabajo05/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7515" windowHeight="4575" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inciso A" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,23 @@
     <sheet name="Inciso Ciii" sheetId="6" r:id="rId5"/>
     <sheet name="Decisión Final" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Tiempo promedio (s)</t>
   </si>
@@ -66,12 +66,15 @@
   <si>
     <t>La mejor estrategia para reducir el tiempo promedio es incrementar la velocidad del procesador (en este caso, 6 instrucciones en lugar de 3). Para intervalos de 10 y de 5, es el que menor tiempo presenta. Incluso si en Intervalo 10 le gana el implementar 2 procesadores, la diferencia no es notoria. En base a las gráficas, nuestra decisión final es incrementar la velocidad del procesador.</t>
   </si>
+  <si>
+    <t>Desviación estándar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +124,15 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +155,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,14 +270,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,12 +371,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -430,10 +448,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +479,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -515,7 +544,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -565,19 +594,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,25 +618,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9056340765600002</c:v>
+                  <c:v>2.90563407656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1010418602300001</c:v>
+                  <c:v>3.10104186023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3312534180000002</c:v>
+                  <c:v>3.331253418</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.38338691493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3312457380099998</c:v>
+                  <c:v>3.33124573801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C10-4C4D-B550-6289F358C865}"/>
             </c:ext>
@@ -621,11 +650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194900976"/>
-        <c:axId val="194907216"/>
+        <c:axId val="234600144"/>
+        <c:axId val="168106032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194900976"/>
+        <c:axId val="234600144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -735,15 +764,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194907216"/>
+        <c:crossAx val="168106032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194907216"/>
+        <c:axId val="168106032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -853,10 +882,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194900976"/>
+        <c:crossAx val="234600144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -893,7 +922,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -905,7 +934,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -970,7 +999,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1031,19 +1060,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,25 +1084,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.0792673154900001</c:v>
+                  <c:v>3.07926731549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1621137589399999</c:v>
+                  <c:v>3.16211375894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0266899646100001</c:v>
+                  <c:v>3.02668996461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0138112588500001</c:v>
+                  <c:v>3.01381125885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0315205283300002</c:v>
+                  <c:v>3.03152052833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C2DC-4F81-A8E4-65FC7777B1D9}"/>
             </c:ext>
@@ -1087,11 +1116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231166432"/>
-        <c:axId val="169148560"/>
+        <c:axId val="234305904"/>
+        <c:axId val="80263600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231166432"/>
+        <c:axId val="234305904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1197,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1206,15 +1235,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169148560"/>
+        <c:crossAx val="80263600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169148560"/>
+        <c:axId val="80263600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1320,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1329,10 +1358,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231166432"/>
+        <c:crossAx val="234305904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1369,7 +1398,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1381,7 +1410,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1446,7 +1475,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1507,19 +1536,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,19 +1566,19 @@
                   <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9868234546700001</c:v>
+                  <c:v>2.98682345467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0139537354799999</c:v>
+                  <c:v>3.01395373548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9442287734299999</c:v>
+                  <c:v>2.94422877343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F1B-4C50-9AC9-B067441A0250}"/>
             </c:ext>
@@ -1563,11 +1592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175592064"/>
-        <c:axId val="232949680"/>
+        <c:axId val="82729792"/>
+        <c:axId val="231997952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175592064"/>
+        <c:axId val="82729792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1673,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1682,15 +1711,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232949680"/>
+        <c:crossAx val="231997952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232949680"/>
+        <c:axId val="231997952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1796,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1805,10 +1834,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175592064"/>
+        <c:crossAx val="82729792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1845,7 +1874,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1857,7 +1886,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1922,7 +1951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1994,8 +2023,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.4702219040801718E-2"/>
-                  <c:y val="0.30964170034944938"/>
+                  <c:x val="0.0847022190408017"/>
+                  <c:y val="0.309641700349449"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2023,7 +2052,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2035,19 +2064,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,13 +2088,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.1031547203300001</c:v>
+                  <c:v>9.10315472033</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.0075327969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.739068826699999</c:v>
+                  <c:v>18.7390688267</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.7116800123</c:v>
@@ -2077,7 +2106,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72EF-4859-A58F-184B84176846}"/>
             </c:ext>
@@ -2091,11 +2120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197371872"/>
-        <c:axId val="229942016"/>
+        <c:axId val="233492640"/>
+        <c:axId val="233496032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197371872"/>
+        <c:axId val="233492640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2201,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2210,15 +2239,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229942016"/>
+        <c:crossAx val="233496032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229942016"/>
+        <c:axId val="233496032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2324,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2333,10 +2362,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197371872"/>
+        <c:crossAx val="233492640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2373,7 +2402,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2385,7 +2414,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2450,7 +2479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2493,19 +2522,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,25 +2546,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9056340765600002</c:v>
+                  <c:v>2.90563407656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1010418602300001</c:v>
+                  <c:v>3.10104186023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3312534180000002</c:v>
+                  <c:v>3.331253418</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.38338691493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3312457380099998</c:v>
+                  <c:v>3.33124573801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE29-4FC5-9834-DEC48FB648E5}"/>
             </c:ext>
@@ -2574,19 +2603,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2598,25 +2627,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9056340765600002</c:v>
+                  <c:v>2.90563407656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1010418602300001</c:v>
+                  <c:v>3.10104186023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3312534180000002</c:v>
+                  <c:v>3.331253418</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.38338691493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3312457380099998</c:v>
+                  <c:v>3.33124573801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FE29-4FC5-9834-DEC48FB648E5}"/>
             </c:ext>
@@ -2655,19 +2684,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,19 +2714,19 @@
                   <c:v>1.71663914487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7888882001399999</c:v>
+                  <c:v>1.78888820014</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.73019396545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7380254506899999</c:v>
+                  <c:v>1.73802545069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FE29-4FC5-9834-DEC48FB648E5}"/>
             </c:ext>
@@ -2736,19 +2765,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2766,19 +2795,19 @@
                   <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9868234546700001</c:v>
+                  <c:v>2.98682345467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0139537354799999</c:v>
+                  <c:v>3.01395373548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9442287734299999</c:v>
+                  <c:v>2.94422877343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FE29-4FC5-9834-DEC48FB648E5}"/>
             </c:ext>
@@ -2793,11 +2822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="900402320"/>
-        <c:axId val="900392752"/>
+        <c:axId val="196660832"/>
+        <c:axId val="173655632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="900402320"/>
+        <c:axId val="196660832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2884,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2893,10 +2922,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900392752"/>
+        <c:crossAx val="173655632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2904,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="900392752"/>
+        <c:axId val="173655632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +3005,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3008,10 +3037,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900402320"/>
+        <c:crossAx val="196660832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3051,7 +3080,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3080,7 +3109,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3092,7 +3121,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3162,7 +3191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3205,19 +3234,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,16 +3258,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4553169564599999</c:v>
+                  <c:v>3.45531695646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6760015846399998</c:v>
+                  <c:v>3.67600158464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5414626779599998</c:v>
+                  <c:v>3.54146267796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8616348998399999</c:v>
+                  <c:v>3.86163489984</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.81505109132</c:v>
@@ -3247,7 +3276,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5AC4-4F3B-BAAC-6143CA6415B6}"/>
             </c:ext>
@@ -3286,19 +3315,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,16 +3339,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4553169564599999</c:v>
+                  <c:v>3.45531695646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6760015846399998</c:v>
+                  <c:v>3.67600158464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5414626779599998</c:v>
+                  <c:v>3.54146267796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8616348998399999</c:v>
+                  <c:v>3.86163489984</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.81505109132</c:v>
@@ -3328,7 +3357,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5AC4-4F3B-BAAC-6143CA6415B6}"/>
             </c:ext>
@@ -3367,19 +3396,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3394,10 +3423,10 @@
                   <c:v>1.98443970749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0775537339699999</c:v>
+                  <c:v>2.07755373397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1016347991500002</c:v>
+                  <c:v>2.10163479915</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.98570005905</c:v>
@@ -3409,7 +3438,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5AC4-4F3B-BAAC-6143CA6415B6}"/>
             </c:ext>
@@ -3448,19 +3477,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,25 +3501,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.0792673154900001</c:v>
+                  <c:v>3.07926731549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1621137589399999</c:v>
+                  <c:v>3.16211375894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0266899646100001</c:v>
+                  <c:v>3.02668996461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0138112588500001</c:v>
+                  <c:v>3.01381125885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0315205283300002</c:v>
+                  <c:v>3.03152052833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5AC4-4F3B-BAAC-6143CA6415B6}"/>
             </c:ext>
@@ -3505,11 +3534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="784882576"/>
-        <c:axId val="784885488"/>
+        <c:axId val="233266800"/>
+        <c:axId val="170112496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="784882576"/>
+        <c:axId val="233266800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,7 +3601,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3610,10 +3639,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784885488"/>
+        <c:crossAx val="170112496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3621,7 +3650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="784885488"/>
+        <c:axId val="170112496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +3722,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3725,10 +3754,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784882576"/>
+        <c:crossAx val="233266800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3768,7 +3797,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3797,7 +3826,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3809,7 +3838,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3874,7 +3903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3917,19 +3946,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,25 +3970,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.645232977799999</c:v>
+                  <c:v>29.6452329778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.765776831399997</c:v>
+                  <c:v>41.7657768314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.879264153700007</c:v>
+                  <c:v>72.87926415370001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>106.506487025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.62738096199999</c:v>
+                  <c:v>136.627380962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6F8C-4E99-86E7-31E7C85E91F5}"/>
             </c:ext>
@@ -3998,19 +4027,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,25 +4051,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.685232977799998</c:v>
+                  <c:v>29.6852329778</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>48.1041947529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.286113321000002</c:v>
+                  <c:v>78.286113321</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>111.406862601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.30005261400001</c:v>
+                  <c:v>138.300052614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6F8C-4E99-86E7-31E7C85E91F5}"/>
             </c:ext>
@@ -4079,19 +4108,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,13 +4144,13 @@
                   <c:v>26.5051723461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.887775353599999</c:v>
+                  <c:v>34.8877753536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6F8C-4E99-86E7-31E7C85E91F5}"/>
             </c:ext>
@@ -4160,19 +4189,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,13 +4213,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.1031547203300001</c:v>
+                  <c:v>9.10315472033</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.0075327969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.739068826699999</c:v>
+                  <c:v>18.7390688267</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.7116800123</c:v>
@@ -4202,7 +4231,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6F8C-4E99-86E7-31E7C85E91F5}"/>
             </c:ext>
@@ -4217,11 +4246,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="784884656"/>
-        <c:axId val="784889232"/>
+        <c:axId val="170434544"/>
+        <c:axId val="170437904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="784884656"/>
+        <c:axId val="170434544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,7 +4308,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4317,10 +4346,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784889232"/>
+        <c:crossAx val="170437904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4328,7 +4357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="784889232"/>
+        <c:axId val="170437904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,7 +4429,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4432,10 +4461,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784884656"/>
+        <c:crossAx val="170434544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4475,7 +4504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4504,7 +4533,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4516,7 +4545,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4581,7 +4610,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4631,19 +4660,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4655,16 +4684,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4553169564599999</c:v>
+                  <c:v>3.45531695646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6760015846399998</c:v>
+                  <c:v>3.67600158464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5414626779599998</c:v>
+                  <c:v>3.54146267796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8616348998399999</c:v>
+                  <c:v>3.86163489984</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.81505109132</c:v>
@@ -4673,7 +4702,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-76A7-4830-948F-1DFDD99B80C2}"/>
             </c:ext>
@@ -4687,11 +4716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194929648"/>
-        <c:axId val="194933408"/>
+        <c:axId val="233352864"/>
+        <c:axId val="286622864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194929648"/>
+        <c:axId val="233352864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,7 +4792,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4801,15 +4830,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194933408"/>
+        <c:crossAx val="286622864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194933408"/>
+        <c:axId val="286622864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,7 +4910,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4919,10 +4948,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194929648"/>
+        <c:crossAx val="233352864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4959,7 +4988,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4971,7 +5000,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5036,7 +5065,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5098,7 +5127,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.121313648293963"/>
-                  <c:y val="0.34842454068241502"/>
+                  <c:y val="0.348424540682415"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5126,7 +5155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5138,19 +5167,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5162,25 +5191,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.645232977799999</c:v>
+                  <c:v>29.6452329778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.765776831399997</c:v>
+                  <c:v>41.7657768314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.879264153700007</c:v>
+                  <c:v>72.87926415370001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>106.506487025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.62738096199999</c:v>
+                  <c:v>136.627380962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0B6-474D-A276-2C6E7D322D04}"/>
             </c:ext>
@@ -5194,11 +5223,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170155216"/>
-        <c:axId val="170096480"/>
+        <c:axId val="171280192"/>
+        <c:axId val="286777760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170155216"/>
+        <c:axId val="171280192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5270,7 +5299,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5308,15 +5337,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170096480"/>
+        <c:crossAx val="286777760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170096480"/>
+        <c:axId val="286777760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5388,7 +5417,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5426,10 +5455,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170155216"/>
+        <c:crossAx val="171280192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5466,7 +5495,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5478,7 +5507,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5548,7 +5577,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5598,19 +5627,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5622,25 +5651,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9056340765600002</c:v>
+                  <c:v>2.90563407656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1010418602300001</c:v>
+                  <c:v>3.10104186023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3312534180000002</c:v>
+                  <c:v>3.331253418</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.38338691493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3312457380099998</c:v>
+                  <c:v>3.33124573801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-452C-4410-A3D5-258B7744F3D9}"/>
             </c:ext>
@@ -5654,11 +5683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168430976"/>
-        <c:axId val="168434368"/>
+        <c:axId val="168599280"/>
+        <c:axId val="196269168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168430976"/>
+        <c:axId val="168599280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5730,7 +5759,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5768,15 +5797,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168434368"/>
+        <c:crossAx val="196269168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168434368"/>
+        <c:axId val="196269168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5853,7 +5882,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5891,10 +5920,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168430976"/>
+        <c:crossAx val="168599280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5931,7 +5960,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5943,7 +5972,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6013,7 +6042,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6063,19 +6092,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6087,16 +6116,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.4553169564599999</c:v>
+                  <c:v>3.45531695646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6760015846399998</c:v>
+                  <c:v>3.67600158464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5414626779599998</c:v>
+                  <c:v>3.54146267796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8616348998399999</c:v>
+                  <c:v>3.86163489984</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.81505109132</c:v>
@@ -6105,7 +6134,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-89EA-47F0-A455-4F20BEAC8D4D}"/>
             </c:ext>
@@ -6119,11 +6148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195127616"/>
-        <c:axId val="195131008"/>
+        <c:axId val="286397312"/>
+        <c:axId val="170863440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195127616"/>
+        <c:axId val="286397312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6195,7 +6224,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6233,15 +6262,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195131008"/>
+        <c:crossAx val="170863440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195131008"/>
+        <c:axId val="170863440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6313,7 +6342,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6351,10 +6380,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195127616"/>
+        <c:crossAx val="286397312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6391,7 +6420,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6403,7 +6432,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6473,7 +6502,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6523,19 +6552,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6547,25 +6576,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.685232977799998</c:v>
+                  <c:v>29.6852329778</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>48.1041947529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.286113321000002</c:v>
+                  <c:v>78.286113321</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>111.406862601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.30005261400001</c:v>
+                  <c:v>138.300052614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-58CA-4FA1-A264-BC02C0FAC232}"/>
             </c:ext>
@@ -6579,11 +6608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195151568"/>
-        <c:axId val="195154960"/>
+        <c:axId val="193725200"/>
+        <c:axId val="170512672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195151568"/>
+        <c:axId val="193725200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6655,7 +6684,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6693,15 +6722,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195154960"/>
+        <c:crossAx val="170512672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195154960"/>
+        <c:axId val="170512672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,7 +6807,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6816,10 +6845,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195151568"/>
+        <c:crossAx val="193725200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6856,7 +6885,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6868,7 +6897,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6933,7 +6962,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6994,19 +7023,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7024,19 +7053,19 @@
                   <c:v>1.71663914487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7888882001399999</c:v>
+                  <c:v>1.78888820014</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.73019396545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7380254506899999</c:v>
+                  <c:v>1.73802545069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E034-4054-96E6-3908CAE69627}"/>
             </c:ext>
@@ -7050,11 +7079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233110400"/>
-        <c:axId val="232878000"/>
+        <c:axId val="232028592"/>
+        <c:axId val="231807488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233110400"/>
+        <c:axId val="232028592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7126,7 +7155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7164,15 +7193,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232878000"/>
+        <c:crossAx val="231807488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232878000"/>
+        <c:axId val="231807488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7249,7 +7278,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7287,10 +7316,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233110400"/>
+        <c:crossAx val="232028592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7327,7 +7356,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7339,7 +7368,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7404,7 +7433,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7465,19 +7494,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7492,10 +7521,10 @@
                   <c:v>1.98443970749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0775537339699999</c:v>
+                  <c:v>2.07755373397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1016347991500002</c:v>
+                  <c:v>2.10163479915</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.98570005905</c:v>
@@ -7507,7 +7536,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AF52-40EA-8169-E242BC006589}"/>
             </c:ext>
@@ -7521,11 +7550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201004448"/>
-        <c:axId val="231075104"/>
+        <c:axId val="173126688"/>
+        <c:axId val="234277408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201004448"/>
+        <c:axId val="173126688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7602,7 +7631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7640,15 +7669,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231075104"/>
+        <c:crossAx val="234277408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231075104"/>
+        <c:axId val="234277408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7725,7 +7754,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7763,10 +7792,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201004448"/>
+        <c:crossAx val="173126688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7803,7 +7832,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7815,7 +7844,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7880,7 +7909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7952,8 +7981,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14948723455022667"/>
-                  <c:y val="0.34515852957546006"/>
+                  <c:x val="0.149487234550227"/>
+                  <c:y val="0.34515852957546"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -7981,7 +8010,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7993,19 +8022,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8029,13 +8058,13 @@
                   <c:v>26.5051723461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.887775353599999</c:v>
+                  <c:v>34.8877753536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2468-4F14-A9B0-D9E964501AAA}"/>
             </c:ext>
@@ -8049,11 +8078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231064544"/>
-        <c:axId val="233389008"/>
+        <c:axId val="286704080"/>
+        <c:axId val="229360944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231064544"/>
+        <c:axId val="286704080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,7 +8159,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8168,15 +8197,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233389008"/>
+        <c:crossAx val="229360944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233389008"/>
+        <c:axId val="229360944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8253,7 +8282,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8291,10 +8320,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231064544"/>
+        <c:crossAx val="286704080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8331,7 +8360,7 @@
           <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17271,21 +17300,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:C15"/>
+  <dimension ref="B9:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
@@ -17293,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -17301,7 +17330,7 @@
         <v>2.9056340765600002</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -17309,7 +17338,7 @@
         <v>3.1010418602300001</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>100</v>
       </c>
@@ -17317,7 +17346,7 @@
         <v>3.3312534180000002</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>150</v>
       </c>
@@ -17325,12 +17354,22 @@
         <v>3.38338691493</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>200</v>
       </c>
       <c r="C15" s="4">
         <v>3.3312457380099998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27">
+        <f>_xlfn.STDEV.S(C11:C15)</f>
+        <v>0.20246920841705554</v>
       </c>
     </row>
   </sheetData>
@@ -17342,21 +17381,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:K32"/>
+  <dimension ref="B9:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
@@ -17364,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>25</v>
       </c>
@@ -17372,7 +17411,7 @@
         <v>3.4553169564599999</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>50</v>
       </c>
@@ -17380,7 +17419,7 @@
         <v>3.6760015846399998</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>100</v>
       </c>
@@ -17388,7 +17427,7 @@
         <v>3.5414626779599998</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>150</v>
       </c>
@@ -17396,7 +17435,7 @@
         <v>3.8616348998399999</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>200</v>
       </c>
@@ -17404,11 +17443,21 @@
         <v>3.81505109132</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27">
+        <f>_xlfn.STDEV.S(C11:C15)</f>
+        <v>0.17350098595960714</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K18" s="1"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>1</v>
       </c>
@@ -17416,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -17424,7 +17473,7 @@
         <v>29.645232977799999</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>50</v>
       </c>
@@ -17432,7 +17481,7 @@
         <v>41.765776831399997</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>100</v>
       </c>
@@ -17440,7 +17489,7 @@
         <v>72.879264153700007</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>150</v>
       </c>
@@ -17448,12 +17497,22 @@
         <v>106.506487025</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>200</v>
       </c>
       <c r="C32" s="4">
         <v>136.62738096199999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="29">
+        <f>_xlfn.STDEV.S(C28:C32)</f>
+        <v>44.513444457943976</v>
       </c>
     </row>
   </sheetData>
@@ -17465,20 +17524,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C34"/>
+  <dimension ref="B4:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C34"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -17486,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>25</v>
       </c>
@@ -17494,7 +17553,7 @@
         <v>2.9056340765600002</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -17502,7 +17561,7 @@
         <v>3.1010418602300001</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>100</v>
       </c>
@@ -17510,7 +17569,7 @@
         <v>3.3312534180000002</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>150</v>
       </c>
@@ -17518,7 +17577,7 @@
         <v>3.38338691493</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>200</v>
       </c>
@@ -17526,8 +17585,18 @@
         <v>3.3312457380099998</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29">
+        <f>_xlfn.STDEV.S(C6:C10)</f>
+        <v>0.20246920841705554</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
@@ -17535,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>25</v>
       </c>
@@ -17543,7 +17612,7 @@
         <v>3.4553169564599999</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -17551,7 +17620,7 @@
         <v>3.6760015846399998</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>100</v>
       </c>
@@ -17559,7 +17628,7 @@
         <v>3.5414626779599998</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>150</v>
       </c>
@@ -17567,7 +17636,7 @@
         <v>3.8616348998399999</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>200</v>
       </c>
@@ -17575,8 +17644,18 @@
         <v>3.81505109132</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="29">
+        <f>_xlfn.STDEV.S(C18:C22)</f>
+        <v>0.17350098595960714</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>1</v>
       </c>
@@ -17584,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>25</v>
       </c>
@@ -17592,7 +17671,7 @@
         <v>29.685232977799998</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>50</v>
       </c>
@@ -17600,7 +17679,7 @@
         <v>48.1041947529</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>100</v>
       </c>
@@ -17608,7 +17687,7 @@
         <v>78.286113321000002</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>150</v>
       </c>
@@ -17616,12 +17695,22 @@
         <v>111.406862601</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>200</v>
       </c>
       <c r="C34" s="4">
         <v>138.30005261400001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="29">
+        <f>_xlfn.STDEV.S(C30:C34)</f>
+        <v>44.526552116533935</v>
       </c>
     </row>
   </sheetData>
@@ -17632,20 +17721,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C35"/>
+  <dimension ref="B5:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C35"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -17653,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>25</v>
       </c>
@@ -17661,7 +17750,7 @@
         <v>1.52726494514</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>50</v>
       </c>
@@ -17669,7 +17758,7 @@
         <v>1.71663914487</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>100</v>
       </c>
@@ -17677,7 +17766,7 @@
         <v>1.7888882001399999</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>150</v>
       </c>
@@ -17685,7 +17774,7 @@
         <v>1.73019396545</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>200</v>
       </c>
@@ -17693,8 +17782,18 @@
         <v>1.7380254506899999</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="29">
+        <f>_xlfn.STDEV.S(C7:C11)</f>
+        <v>0.10046489210598733</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
@@ -17702,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>25</v>
       </c>
@@ -17710,7 +17809,7 @@
         <v>1.98443970749</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>50</v>
       </c>
@@ -17718,7 +17817,7 @@
         <v>2.0775537339699999</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>100</v>
       </c>
@@ -17726,7 +17825,7 @@
         <v>2.1016347991500002</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>150</v>
       </c>
@@ -17734,7 +17833,7 @@
         <v>1.98570005905</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>200</v>
       </c>
@@ -17742,8 +17841,18 @@
         <v>1.96456077685</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="29">
+        <f>_xlfn.STDEV.S(C19:C23)</f>
+        <v>6.2154282340270026E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>1</v>
       </c>
@@ -17751,7 +17860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>25</v>
       </c>
@@ -17759,7 +17868,7 @@
         <v>10.5714806113</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>50</v>
       </c>
@@ -17767,7 +17876,7 @@
         <v>15.3373787175</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>100</v>
       </c>
@@ -17775,7 +17884,7 @@
         <v>21.8512794892</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>150</v>
       </c>
@@ -17783,12 +17892,22 @@
         <v>26.5051723461</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>200</v>
       </c>
       <c r="C35" s="4">
         <v>34.887775353599999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="29">
+        <f>_xlfn.STDEV.S(C31:C35)</f>
+        <v>9.5035726769708813</v>
       </c>
     </row>
   </sheetData>
@@ -17800,20 +17919,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C33"/>
+  <dimension ref="B4:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -17821,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>25</v>
       </c>
@@ -17829,7 +17948,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>50</v>
       </c>
@@ -17837,7 +17956,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>100</v>
       </c>
@@ -17845,7 +17964,7 @@
         <v>2.9868234546700001</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>150</v>
       </c>
@@ -17853,7 +17972,7 @@
         <v>3.0139537354799999</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>200</v>
       </c>
@@ -17861,8 +17980,18 @@
         <v>2.9442287734299999</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29">
+        <f>_xlfn.STDEV.S(C6:C10)</f>
+        <v>9.9341084923420322E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
@@ -17870,7 +17999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>25</v>
       </c>
@@ -17878,7 +18007,7 @@
         <v>3.0792673154900001</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>50</v>
       </c>
@@ -17886,7 +18015,7 @@
         <v>3.1621137589399999</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>100</v>
       </c>
@@ -17894,7 +18023,7 @@
         <v>3.0266899646100001</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>150</v>
       </c>
@@ -17902,7 +18031,7 @@
         <v>3.0138112588500001</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>200</v>
       </c>
@@ -17910,10 +18039,20 @@
         <v>3.0315205283300002</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="29">
+        <f>_xlfn.STDEV.S(C18:C22)</f>
+        <v>6.0861647681889876E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
@@ -17921,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>25</v>
       </c>
@@ -17929,7 +18068,7 @@
         <v>9.1031547203300001</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>50</v>
       </c>
@@ -17937,7 +18076,7 @@
         <v>11.0075327969</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>100</v>
       </c>
@@ -17945,7 +18084,7 @@
         <v>18.739068826699999</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>150</v>
       </c>
@@ -17953,12 +18092,22 @@
         <v>25.7116800123</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>200</v>
       </c>
       <c r="C33" s="4">
         <v>29.302750348</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="29">
+        <f>_xlfn.STDEV.S(C29:C33)</f>
+        <v>8.8435069756249316</v>
       </c>
     </row>
   </sheetData>
@@ -17971,21 +18120,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -17994,7 +18143,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="15" t="s">
         <v>6</v>
@@ -18012,7 +18161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="9">
         <v>2.9056340765600002</v>
@@ -18030,7 +18179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="5">
         <v>3.1010418602300001</v>
@@ -18048,7 +18197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>3.3312534180000002</v>
@@ -18066,7 +18215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>3.38338691493</v>
@@ -18084,7 +18233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6">
         <v>3.3312457380099998</v>
@@ -18102,21 +18251,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
@@ -18125,7 +18274,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="15" t="s">
         <v>6</v>
@@ -18143,7 +18292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="5">
         <v>3.4553169564599999</v>
@@ -18161,7 +18310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="5">
         <v>3.6760015846399998</v>
@@ -18179,7 +18328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="5">
         <v>3.5414626779599998</v>
@@ -18197,7 +18346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="5">
         <v>3.8616348998399999</v>
@@ -18215,7 +18364,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="6">
         <v>3.81505109132</v>
@@ -18233,21 +18382,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>4</v>
       </c>
@@ -18256,7 +18405,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -18274,7 +18423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="9">
         <v>29.645232977799999</v>
@@ -18292,7 +18441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="5">
         <v>41.765776831399997</v>
@@ -18310,7 +18459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="5">
         <v>72.879264153700007</v>
@@ -18328,7 +18477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="5">
         <v>106.506487025</v>
@@ -18346,7 +18495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="6">
         <v>136.62738096199999</v>
@@ -18364,11 +18513,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="18" t="s">
         <v>9</v>
       </c>
@@ -18377,7 +18526,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -18385,49 +18534,49 @@
       <c r="E31" s="23"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D39" s="17"/>
     </row>
   </sheetData>
